--- a/Sprint 3/Planilhas/Clientes.xlsx
+++ b/Sprint 3/Planilhas/Clientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukar\Desktop\Documentos Projeto\Planilhas\Novas Planilhas Proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projeto-LogInova-Consultoria\Sprint 3\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFABD0CF-B6D1-4BD1-8915-0136CD2A7577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6845DD1-C7B2-43AD-B7F3-96A8DA162433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -630,6 +630,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A3B684F-A132-4C0B-BE9C-9359EC704F96}" name="Tabela1" displayName="Tabela1" ref="A1:D52" totalsRowShown="0">
+  <autoFilter ref="A1:D52" xr:uid="{0A3B684F-A132-4C0B-BE9C-9359EC704F96}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
+    <sortCondition ref="B1:B52"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5DCCE5C8-1C40-4EF3-BB51-4932FC76FFA0}" name="CO.Cliente"/>
+    <tableColumn id="2" xr3:uid="{1A16239B-6259-427E-B59E-51EECD9F7FA4}" name="MUN"/>
+    <tableColumn id="3" xr3:uid="{859839D9-BEE2-4120-BB87-C639A941B634}" name="LAT"/>
+    <tableColumn id="4" xr3:uid="{054F230C-24DE-4A04-AD29-D54985A3412D}" name="LONG"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -928,12 +944,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -951,719 +973,722 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2301</v>
+        <v>2309</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>-22.951879999999999</v>
+        <v>-22.722370000000002</v>
       </c>
       <c r="D2">
-        <v>-47.027790000000003</v>
+        <v>-47.307400000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2302</v>
+        <v>2350</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>-22.894290000000002</v>
+        <v>-22.312100000000001</v>
       </c>
       <c r="D3">
-        <v>-47.058219999999999</v>
+        <v>-49.057459999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2303</v>
+        <v>2351</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>-22.92634</v>
+        <v>-22.316279999999999</v>
       </c>
       <c r="D4">
-        <v>-47.039740000000002</v>
+        <v>-49.068150000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2304</v>
+        <v>2341</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>-22.833089999999999</v>
+        <v>-23.072230000000001</v>
       </c>
       <c r="D5">
-        <v>-47.079430000000002</v>
+        <v>-45.712269999999997</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2305</v>
+        <v>2342</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>-22.823070000000001</v>
+        <v>-23.11919</v>
       </c>
       <c r="D6">
-        <v>-47.078180000000003</v>
+        <v>-45.713470000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>-22.975090000000002</v>
+        <v>-22.894290000000002</v>
       </c>
       <c r="D7">
-        <v>-47.014780000000002</v>
+        <v>-47.058219999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>-22.949560000000002</v>
+        <v>-22.92634</v>
       </c>
       <c r="D8">
-        <v>-47.092680000000001</v>
+        <v>-47.039740000000002</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>-22.88062</v>
+        <v>-22.833089999999999</v>
       </c>
       <c r="D9">
-        <v>-46.969439999999999</v>
+        <v>-47.079430000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>-22.722370000000002</v>
+        <v>-22.823070000000001</v>
       </c>
       <c r="D10">
-        <v>-47.307400000000001</v>
+        <v>-47.078180000000003</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>-23.470839999999999</v>
+        <v>-22.949560000000002</v>
       </c>
       <c r="D11">
-        <v>-46.649650000000001</v>
+        <v>-47.092680000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>-22.74145</v>
+        <v>-22.88062</v>
       </c>
       <c r="D12">
-        <v>-47.60181</v>
+        <v>-46.969439999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2312</v>
+        <v>2326</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>-23.311050000000002</v>
+        <v>-23.58915</v>
       </c>
       <c r="D13">
-        <v>-45.981070000000003</v>
+        <v>-46.816899999999997</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>-23.222989999999999</v>
+        <v>-23.311050000000002</v>
       </c>
       <c r="D14">
-        <v>-45.905949999999997</v>
+        <v>-45.981070000000003</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2314</v>
+        <v>2330</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>-23.228284630000001</v>
+        <v>-23.662890000000001</v>
       </c>
       <c r="D15">
-        <v>-45.908522089999998</v>
+        <v>-46.482230000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2315</v>
+        <v>2331</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>-23.237400000000001</v>
+        <v>-23.551639999999999</v>
       </c>
       <c r="D16">
-        <v>-45.896599999999999</v>
+        <v>-46.79466</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2316</v>
+        <v>2343</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>-23.241869999999999</v>
+        <v>-22.95467</v>
       </c>
       <c r="D17">
-        <v>-45.905000000000001</v>
+        <v>-45.494889999999998</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2317</v>
+        <v>2311</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>-23.228359999999999</v>
+        <v>-22.74145</v>
       </c>
       <c r="D18">
-        <v>-45.911239999999999</v>
+        <v>-47.60181</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2318</v>
+        <v>2347</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>-23.174219999999998</v>
+        <v>-21.194980000000001</v>
       </c>
       <c r="D19">
-        <v>-45.816290000000002</v>
+        <v>-47.755890000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2319</v>
+        <v>2348</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C20">
-        <v>-23.516719999999999</v>
+        <v>-21.141179999999999</v>
       </c>
       <c r="D20">
-        <v>-46.670400000000001</v>
+        <v>-47.804819999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2320</v>
+        <v>2349</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>-23.552240000000001</v>
+        <v>-21.175160000000002</v>
       </c>
       <c r="D21">
-        <v>-46.742319999999999</v>
+        <v>-47.794550000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2321</v>
+        <v>2334</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>-23.54149</v>
+        <v>-23.46668</v>
       </c>
       <c r="D22">
-        <v>-46.730600000000003</v>
+        <v>-46.846220000000002</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2322</v>
+        <v>2335</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>-23.534659999999999</v>
+        <v>-23.46236</v>
       </c>
       <c r="D23">
-        <v>-46.712949999999999</v>
+        <v>-46.876010000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2323</v>
+        <v>2329</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>-23.590319999999998</v>
+        <v>-23.67408</v>
       </c>
       <c r="D24">
-        <v>-46.739510000000003</v>
+        <v>-46.57141</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2324</v>
+        <v>2336</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C25">
-        <v>-23.595510000000001</v>
+        <v>-22.044499999999999</v>
       </c>
       <c r="D25">
-        <v>-46.737650000000002</v>
+        <v>-47.889980000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2325</v>
+        <v>2337</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C26">
-        <v>-23.60962</v>
+        <v>-22.02384</v>
       </c>
       <c r="D26">
-        <v>-46.752960000000002</v>
+        <v>-47.880209999999998</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>2326</v>
+        <v>2338</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>-23.58915</v>
+        <v>-22.03848</v>
       </c>
       <c r="D27">
-        <v>-46.816899999999997</v>
+        <v>-47.86018</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2327</v>
+        <v>2313</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>-23.611840000000001</v>
+        <v>-23.222989999999999</v>
       </c>
       <c r="D28">
-        <v>-46.740810000000003</v>
+        <v>-45.905949999999997</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>2328</v>
+        <v>2314</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>-23.670500000000001</v>
+        <v>-23.228284630000001</v>
       </c>
       <c r="D29">
-        <v>-46.647849999999998</v>
+        <v>-45.908522089999998</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>2329</v>
+        <v>2315</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>-23.67408</v>
+        <v>-23.237400000000001</v>
       </c>
       <c r="D30">
-        <v>-46.57141</v>
+        <v>-45.896599999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>2330</v>
+        <v>2316</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>-23.662890000000001</v>
+        <v>-23.241869999999999</v>
       </c>
       <c r="D31">
-        <v>-46.482230000000001</v>
+        <v>-45.905000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>2331</v>
+        <v>2317</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>-23.551639999999999</v>
+        <v>-23.228359999999999</v>
       </c>
       <c r="D32">
-        <v>-46.79466</v>
+        <v>-45.911239999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>2332</v>
+        <v>2318</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>-23.485520000000001</v>
+        <v>-23.174219999999998</v>
       </c>
       <c r="D33">
-        <v>-46.73883</v>
+        <v>-45.816290000000002</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>2333</v>
+        <v>2310</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34">
-        <v>-23.467220000000001</v>
+        <v>-23.470839999999999</v>
       </c>
       <c r="D34">
-        <v>-46.58475</v>
+        <v>-46.649650000000001</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>2334</v>
+        <v>2319</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>-23.46668</v>
+        <v>-23.516719999999999</v>
       </c>
       <c r="D35">
-        <v>-46.846220000000002</v>
+        <v>-46.670400000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>2335</v>
+        <v>2320</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>-23.46236</v>
+        <v>-23.552240000000001</v>
       </c>
       <c r="D36">
-        <v>-46.876010000000001</v>
+        <v>-46.742319999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>2336</v>
+        <v>2321</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>-22.044499999999999</v>
+        <v>-23.54149</v>
       </c>
       <c r="D37">
-        <v>-47.889980000000001</v>
+        <v>-46.730600000000003</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>2337</v>
+        <v>2322</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C38">
-        <v>-22.02384</v>
+        <v>-23.534659999999999</v>
       </c>
       <c r="D38">
-        <v>-47.880209999999998</v>
+        <v>-46.712949999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>2338</v>
+        <v>2323</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>-22.03848</v>
+        <v>-23.590319999999998</v>
       </c>
       <c r="D39">
-        <v>-47.86018</v>
+        <v>-46.739510000000003</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>2339</v>
+        <v>2324</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>-23.017330000000001</v>
+        <v>-23.595510000000001</v>
       </c>
       <c r="D40">
-        <v>-45.55106</v>
+        <v>-46.737650000000002</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>2340</v>
+        <v>2325</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C41">
-        <v>-22.99756</v>
+        <v>-23.60962</v>
       </c>
       <c r="D41">
-        <v>-45.540059999999997</v>
+        <v>-46.752960000000002</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>2341</v>
+        <v>2327</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>-23.072230000000001</v>
+        <v>-23.611840000000001</v>
       </c>
       <c r="D42">
-        <v>-45.712269999999997</v>
+        <v>-46.740810000000003</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>2342</v>
+        <v>2328</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C43">
-        <v>-23.11919</v>
+        <v>-23.670500000000001</v>
       </c>
       <c r="D43">
-        <v>-45.713470000000001</v>
+        <v>-46.647849999999998</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>2343</v>
+        <v>2332</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <v>-22.95467</v>
+        <v>-23.485520000000001</v>
       </c>
       <c r="D44">
-        <v>-45.494889999999998</v>
+        <v>-46.73883</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>2344</v>
+        <v>2333</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>-23.465869999999999</v>
+        <v>-23.467220000000001</v>
       </c>
       <c r="D45">
-        <v>-47.496229999999997</v>
+        <v>-46.58475</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
       </c>
       <c r="C46">
-        <v>-23.495629999999998</v>
+        <v>-23.465869999999999</v>
       </c>
       <c r="D46">
-        <v>-47.511209999999998</v>
+        <v>-47.496229999999997</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
       </c>
       <c r="C47">
-        <v>-23.48649</v>
+        <v>-23.495629999999998</v>
       </c>
       <c r="D47">
-        <v>-47.471170000000001</v>
+        <v>-47.511209999999998</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48">
-        <v>-21.194980000000001</v>
+        <v>-23.48649</v>
       </c>
       <c r="D48">
-        <v>-47.755890000000001</v>
+        <v>-47.471170000000001</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>2348</v>
+        <v>2339</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>-21.141179999999999</v>
+        <v>-23.017330000000001</v>
       </c>
       <c r="D49">
-        <v>-47.804819999999999</v>
+        <v>-45.55106</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>2349</v>
+        <v>2340</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C50">
-        <v>-21.175160000000002</v>
+        <v>-22.99756</v>
       </c>
       <c r="D50">
-        <v>-47.794550000000001</v>
+        <v>-45.540059999999997</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>2350</v>
+        <v>2301</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>-22.312100000000001</v>
+        <v>-22.951879999999999</v>
       </c>
       <c r="D51">
-        <v>-49.057459999999999</v>
+        <v>-47.027790000000003</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>2351</v>
+        <v>2306</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>-22.316279999999999</v>
+        <v>-22.975090000000002</v>
       </c>
       <c r="D52">
-        <v>-49.068150000000003</v>
+        <v>-47.014780000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>